--- a/uploads/1522404679965-学生花名册.xlsx
+++ b/uploads/1522404679965-学生花名册.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxin/Documents/w1710/element-server/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="1500" yWindow="600" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -40,93 +40,197 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <rPh sb="0" eb="1">
-      <t>zhang'san</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>w1710</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w1711</t>
-  </si>
-  <si>
-    <t>w1712</t>
-  </si>
-  <si>
-    <t>w1713</t>
-  </si>
-  <si>
-    <t>w1714</t>
-  </si>
-  <si>
-    <t>w1715</t>
-  </si>
-  <si>
-    <t>w1716</t>
-  </si>
-  <si>
-    <t>w1717</t>
-  </si>
-  <si>
-    <t>w1718</t>
-  </si>
-  <si>
-    <t>w1719</t>
-  </si>
-  <si>
-    <t>w1720</t>
-  </si>
-  <si>
-    <t>w1721</t>
-  </si>
-  <si>
-    <t>w1722</t>
-  </si>
-  <si>
-    <t>w1723</t>
-  </si>
-  <si>
-    <t>w1724</t>
-  </si>
-  <si>
-    <t>w1725</t>
-  </si>
-  <si>
-    <t>w1726</t>
-  </si>
-  <si>
-    <t>w1727</t>
-  </si>
-  <si>
-    <t>w1728</t>
-  </si>
-  <si>
-    <t>w1729</t>
-  </si>
-  <si>
-    <t>w1730</t>
-  </si>
-  <si>
-    <t>w1731</t>
-  </si>
-  <si>
-    <t>w1732</t>
-  </si>
-  <si>
-    <t>w1733</t>
-  </si>
-  <si>
-    <t>w1734</t>
-  </si>
-  <si>
-    <t>w1735</t>
-  </si>
-  <si>
-    <t>w1736</t>
+    <t>张三1</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三2</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三3</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三4</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三5</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三6</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三7</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三8</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三9</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三10</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三11</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三12</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三13</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三14</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三15</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三16</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三17</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三18</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三19</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三20</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三21</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三22</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三23</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三24</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三25</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三26</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三27</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,10 +556,14 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B28"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -467,218 +575,218 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
